--- a/tables/crosstab/crosstab_gender/crosstab_time_gender/Gender VS frequently.xlsx
+++ b/tables/crosstab/crosstab_gender/crosstab_time_gender/Gender VS frequently.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
   <si>
     <t>As frequently</t>
   </si>
@@ -28,9 +37,6 @@
     <t>Not at all</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>('Regarding the parks or squares that you have visited in 2019, did you visit parks or squares more frequently during the day before the corona virus outbreak?', 'As frequently')</t>
   </si>
   <si>
@@ -44,15 +50,6 @@
   </si>
   <si>
     <t>('Regarding the parks or squares that you have visited in 2019, did you visit parks or squares more frequently during the day before the corona virus outbreak?', 'All')</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -410,16 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,130 +423,144 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B2">
         <v>70</v>
       </c>
       <c r="C2">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>81</v>
-      </c>
-      <c r="D2">
-        <v>106</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>272</v>
-      </c>
-      <c r="G2">
-        <v>17.28</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>26.17</v>
-      </c>
-      <c r="J2">
-        <v>3.7</v>
-      </c>
-      <c r="K2">
-        <v>67.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>28</v>
       </c>
       <c r="C3">
         <v>33</v>
       </c>
       <c r="D3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>105</v>
+      </c>
+      <c r="C4">
         <v>57</v>
       </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>133</v>
-      </c>
-      <c r="G3">
-        <v>6.91</v>
-      </c>
-      <c r="H3">
-        <v>8.15</v>
-      </c>
-      <c r="I3">
-        <v>14.07</v>
-      </c>
-      <c r="J3">
-        <v>3.7</v>
-      </c>
-      <c r="K3">
-        <v>32.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>98</v>
-      </c>
-      <c r="C4">
-        <v>114</v>
-      </c>
       <c r="D4">
-        <v>163</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>405</v>
-      </c>
-      <c r="G4">
-        <v>24.2</v>
-      </c>
-      <c r="H4">
-        <v>28.15</v>
-      </c>
-      <c r="I4">
-        <v>40.25</v>
-      </c>
-      <c r="J4">
-        <v>7.41</v>
-      </c>
-      <c r="K4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>270</v>
+      </c>
+      <c r="C6">
+        <v>130</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>17.5</v>
+      </c>
+      <c r="C7">
+        <v>6.75</v>
+      </c>
+      <c r="D7">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>20.25</v>
+      </c>
+      <c r="C8">
+        <v>8.25</v>
+      </c>
+      <c r="D8">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>26.25</v>
+      </c>
+      <c r="C9">
+        <v>14.25</v>
+      </c>
+      <c r="D9">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3.5</v>
+      </c>
+      <c r="C10">
+        <v>3.25</v>
+      </c>
+      <c r="D10">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>67.5</v>
+      </c>
+      <c r="C11">
+        <v>32.5</v>
+      </c>
+      <c r="D11">
         <v>100</v>
       </c>
     </row>
